--- a/example/BuildSchema/Tables/UnitTable.xlsx
+++ b/example/BuildSchema/Tables/UnitTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devarc\example\BuildSchema\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9535F-4374-4F0A-B040-B1FDFAB601C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B50C23-FF99-4608-BFF4-330C0537E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
+    <workbookView xWindow="1800" yWindow="780" windowWidth="25635" windowHeight="13905" xr2:uid="{84FD4B15-AE04-431D-A01B-7BE3057C75B0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIT_HERO" sheetId="3" r:id="rId1"/>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41881828-F3C8-490E-8EAB-015E05A65749}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C51102-EBB0-49CC-8FB7-52060FC54E31}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
